--- a/SnapbizzNeoProject/src/test/resources/excel/testData.xlsx
+++ b/SnapbizzNeoProject/src/test/resources/excel/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snapbizz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4948FC-4823-46E7-8945-B689AF8F3178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF5B10-A36E-4D26-8584-805170D33854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{558D1395-3748-46A2-BBEE-9D04C53EDD1D}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -67,12 +67,6 @@
     <t>purchase price</t>
   </si>
   <si>
-    <t>250_</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ja_</t>
   </si>
   <si>
@@ -112,21 +106,6 @@
     <t>456890_</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>lihan</t>
-  </si>
-  <si>
-    <t>Sagar</t>
-  </si>
-  <si>
     <t>cust134@gmail.com_</t>
   </si>
   <si>
@@ -148,226 +127,241 @@
     <t>lihan@gmail.com</t>
   </si>
   <si>
-    <t>98623471_</t>
-  </si>
-  <si>
-    <t>96623929_</t>
-  </si>
-  <si>
-    <t>89863335_</t>
-  </si>
-  <si>
-    <t>98456738_</t>
-  </si>
-  <si>
-    <t>84346748_</t>
+    <t>27AABCD6789Z1ZQ</t>
+  </si>
+  <si>
+    <t>Isabella Moore</t>
+  </si>
+  <si>
+    <t>value@mart.com</t>
+  </si>
+  <si>
+    <t>16 Willow Way</t>
+  </si>
+  <si>
+    <t>ValueMart</t>
+  </si>
+  <si>
+    <t>27ABBCR5678H2ZP</t>
+  </si>
+  <si>
+    <t>Ethan Taylor</t>
+  </si>
+  <si>
+    <t>urban@bazaar.com</t>
+  </si>
+  <si>
+    <t>50 Maple Rd</t>
+  </si>
+  <si>
+    <t>UrbanBazaar</t>
+  </si>
+  <si>
+    <t>27BCRPH6043Q1ZU</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>needs@daily.com</t>
+  </si>
+  <si>
+    <t>12 Oak Lane</t>
+  </si>
+  <si>
+    <t>Daily Needs</t>
+  </si>
+  <si>
+    <t>27AEYPS3922D1Z2</t>
+  </si>
+  <si>
+    <t>Sophia Brown</t>
+  </si>
+  <si>
+    <t>supermart@b2b.com</t>
+  </si>
+  <si>
+    <t>8 High St</t>
+  </si>
+  <si>
+    <t>SuperMart</t>
+  </si>
+  <si>
+    <t>27AAYFS8353E1ZI</t>
+  </si>
+  <si>
+    <t>Michael Davis</t>
+  </si>
+  <si>
+    <t>prime@traders.com</t>
+  </si>
+  <si>
+    <t>77 Sunset Blvd</t>
+  </si>
+  <si>
+    <t>Prime Traders</t>
+  </si>
+  <si>
+    <t>27AAQCS4503H1Z6</t>
+  </si>
+  <si>
+    <t>Emily Clark</t>
+  </si>
+  <si>
+    <t>happymart@retail.com</t>
+  </si>
+  <si>
+    <t>45 Elm Ave</t>
+  </si>
+  <si>
+    <t>Happy Mart</t>
+  </si>
+  <si>
+    <t>27AABCR1718E1ZP</t>
+  </si>
+  <si>
+    <t>Mark Spencer</t>
+  </si>
+  <si>
+    <t>john@grocery.com</t>
+  </si>
+  <si>
+    <t>123 Market St</t>
+  </si>
+  <si>
+    <t>GsTin</t>
+  </si>
+  <si>
+    <t>SalespersonName</t>
+  </si>
+  <si>
+    <t>AlternatePhone</t>
+  </si>
+  <si>
+    <t>28765432_</t>
+  </si>
+  <si>
+    <t>21234567_</t>
+  </si>
+  <si>
+    <t>28712345_</t>
+  </si>
+  <si>
+    <t>28345678_</t>
+  </si>
+  <si>
+    <t>27654321_</t>
+  </si>
+  <si>
+    <t>21286753_</t>
+  </si>
+  <si>
+    <t>20234567_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sagar</t>
+  </si>
+  <si>
+    <t>46623929_</t>
+  </si>
+  <si>
+    <t>49863335_</t>
+  </si>
+  <si>
+    <t>48456738_</t>
+  </si>
+  <si>
+    <t>44346748_</t>
+  </si>
+  <si>
+    <t>48743471_</t>
+  </si>
+  <si>
+    <t>John's Grocery</t>
+  </si>
+  <si>
+    <t>FreshGro</t>
+  </si>
+  <si>
+    <t>City Superstore</t>
+  </si>
+  <si>
+    <t>GreenGrocers</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>24665432_</t>
+  </si>
+  <si>
+    <t>28355432_</t>
+  </si>
+  <si>
+    <t>29865432_</t>
+  </si>
+  <si>
+    <t>28235432_</t>
+  </si>
+  <si>
+    <t>22 Cedar Dr</t>
+  </si>
+  <si>
+    <t>superstore@city.com</t>
+  </si>
+  <si>
+    <t>Olivia Thomas</t>
+  </si>
+  <si>
+    <t>27AABCR5671Z1ZP</t>
+  </si>
+  <si>
+    <t>18 Birch Ln</t>
+  </si>
+  <si>
+    <t>green@grocers.com</t>
+  </si>
+  <si>
+    <t>Emma Green</t>
+  </si>
+  <si>
+    <t>27AACCR9102H1ZL</t>
+  </si>
+  <si>
+    <t>bnglr</t>
+  </si>
+  <si>
+    <t>d3@gmail.com</t>
+  </si>
+  <si>
+    <t>Sp1</t>
   </si>
   <si>
     <t>27AABCR5671Z1AS</t>
-  </si>
-  <si>
-    <t>Sp1</t>
-  </si>
-  <si>
-    <t>d3@gmail.com</t>
-  </si>
-  <si>
-    <t>bnglr</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>27AACCR9102H1ZL</t>
-  </si>
-  <si>
-    <t>Emma Green</t>
-  </si>
-  <si>
-    <t>green@grocers.com</t>
-  </si>
-  <si>
-    <t>18 Birch Ln</t>
-  </si>
-  <si>
-    <t>GreenGrocers</t>
-  </si>
-  <si>
-    <t>27AABCR5671Z1ZP</t>
-  </si>
-  <si>
-    <t>Olivia Thomas</t>
-  </si>
-  <si>
-    <t>superstore@city.com</t>
-  </si>
-  <si>
-    <t>22 Cedar Dr</t>
-  </si>
-  <si>
-    <t>City Superstore</t>
-  </si>
-  <si>
-    <t>27AABCD6789Z1ZQ</t>
-  </si>
-  <si>
-    <t>Isabella Moore</t>
-  </si>
-  <si>
-    <t>value@mart.com</t>
-  </si>
-  <si>
-    <t>16 Willow Way</t>
-  </si>
-  <si>
-    <t>ValueMart</t>
-  </si>
-  <si>
-    <t>27ABBCR5678H2ZP</t>
-  </si>
-  <si>
-    <t>Ethan Taylor</t>
-  </si>
-  <si>
-    <t>urban@bazaar.com</t>
-  </si>
-  <si>
-    <t>50 Maple Rd</t>
-  </si>
-  <si>
-    <t>UrbanBazaar</t>
-  </si>
-  <si>
-    <t>27AACCR1234H1ZL</t>
-  </si>
-  <si>
-    <t>Laura Johnson</t>
-  </si>
-  <si>
-    <t>fresh@gro.com</t>
-  </si>
-  <si>
-    <t>9 Pine Ct</t>
-  </si>
-  <si>
-    <t>FreshGro</t>
-  </si>
-  <si>
-    <t>27BCRPH6043Q1ZU</t>
-  </si>
-  <si>
-    <t>David Wilson</t>
-  </si>
-  <si>
-    <t>needs@daily.com</t>
-  </si>
-  <si>
-    <t>12 Oak Lane</t>
-  </si>
-  <si>
-    <t>Daily Needs</t>
-  </si>
-  <si>
-    <t>27AEYPS3922D1Z2</t>
-  </si>
-  <si>
-    <t>Sophia Brown</t>
-  </si>
-  <si>
-    <t>supermart@b2b.com</t>
-  </si>
-  <si>
-    <t>8 High St</t>
-  </si>
-  <si>
-    <t>SuperMart</t>
-  </si>
-  <si>
-    <t>27AAYFS8353E1ZI</t>
-  </si>
-  <si>
-    <t>Michael Davis</t>
-  </si>
-  <si>
-    <t>prime@traders.com</t>
-  </si>
-  <si>
-    <t>77 Sunset Blvd</t>
-  </si>
-  <si>
-    <t>Prime Traders</t>
-  </si>
-  <si>
-    <t>27AAQCS4503H1Z6</t>
-  </si>
-  <si>
-    <t>Emily Clark</t>
-  </si>
-  <si>
-    <t>happymart@retail.com</t>
-  </si>
-  <si>
-    <t>45 Elm Ave</t>
-  </si>
-  <si>
-    <t>Happy Mart</t>
-  </si>
-  <si>
-    <t>27AABCR1718E1ZP</t>
-  </si>
-  <si>
-    <t>Mark Spencer</t>
-  </si>
-  <si>
-    <t>john@grocery.com</t>
-  </si>
-  <si>
-    <t>123 Market St</t>
-  </si>
-  <si>
-    <t>GsTin</t>
-  </si>
-  <si>
-    <t>SalespersonName</t>
-  </si>
-  <si>
-    <t>AlternatePhone</t>
-  </si>
-  <si>
-    <t>98736728_</t>
-  </si>
-  <si>
-    <t>98765432_</t>
-  </si>
-  <si>
-    <t>91234567_</t>
-  </si>
-  <si>
-    <t>98712345_</t>
-  </si>
-  <si>
-    <t>98345678_</t>
-  </si>
-  <si>
-    <t>97654321_</t>
-  </si>
-  <si>
-    <t>96543218_</t>
-  </si>
-  <si>
-    <t>91286753_</t>
-  </si>
-  <si>
-    <t>90234567_</t>
-  </si>
-  <si>
-    <t>99345671_</t>
-  </si>
-  <si>
-    <t>90543218_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> John's Grocery</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1230,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,16 +1262,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1293,8 +1287,11 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>300</v>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1307,8 +1304,11 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>500</v>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1321,8 +1321,11 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>600</v>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1335,8 +1338,11 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
-        <v>90</v>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1354,7 +1360,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,48 +1378,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C2">
-        <v>6589887623</v>
+        <v>2659887623</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1425,93 +1431,93 @@
         <v>36680</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>2376324588</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>9876324588</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>2490018992</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>8990018992</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>9864268712</v>
+        <v>2964268712</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>7799179008</v>
+        <v>2899179008</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1534,7 +1540,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,275 +1558,275 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>9876543211</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>9123456788</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>9871234566</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>9834567891</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>9765432178</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>9654321871</v>
+        <v>9023456782</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>9128675308</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>9023456782</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>9934567124</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>9054321877</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>9865432167</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
